--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
@@ -731,7 +731,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
         <v>7</v>
@@ -855,16 +855,16 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>1.8</v>
@@ -882,7 +882,7 @@
         <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1004,13 +1004,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>3.25</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1153,16 +1153,16 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1180,7 +1180,7 @@
         <v>5.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
         <v>1.62</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -867,10 +867,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -906,16 +906,16 @@
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ3" t="n">
         <v>1250</v>
@@ -1004,10 +1004,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1022,10 +1022,10 @@
         <v>2.36</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>3.75</v>
@@ -1165,10 +1165,10 @@
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S5" t="n">
         <v>2.7</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1293,7 +1293,7 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1343,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1432,16 +1432,16 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>2.5</v>
@@ -1453,36 +1453,36 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.2</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM7" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -740,10 +740,10 @@
         <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>2.75</v>
@@ -755,7 +755,7 @@
         <v>4.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -1022,10 +1022,10 @@
         <v>2.36</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
         <v>3.75</v>
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1165,10 +1165,10 @@
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>2.7</v>
@@ -1198,16 +1198,16 @@
         <v>5.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1225,10 +1225,10 @@
         <v>81</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
@@ -1246,10 +1246,10 @@
         <v>900</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1432,7 +1432,7 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.9</v>
@@ -1453,24 +1453,24 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>1.36</v>
@@ -1515,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL7" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1159,52 +1159,52 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.62</v>
       </c>
-      <c r="X5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1213,43 +1213,43 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
         <v>41</v>
       </c>
-      <c r="AP5" t="n">
-        <v>51</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1293,7 +1293,7 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1302,10 +1302,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1346,7 +1346,7 @@
         <v>8.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1588,10 +1588,10 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1094,7 +1094,7 @@
         <v>51</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AR4" t="n">
         <v>3</v>
@@ -1135,28 +1135,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1165,16 +1165,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1246,10 +1246,10 @@
         <v>1250</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1624,22 +1624,22 @@
         <v>2.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
@@ -1663,16 +1663,16 @@
         <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -900,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
@@ -939,10 +939,10 @@
         <v>41</v>
       </c>
       <c r="AO3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP3" t="n">
         <v>41</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>51</v>
       </c>
       <c r="AQ3" t="n">
         <v>1250</v>
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
@@ -1334,10 +1334,10 @@
         <v>2.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1346,7 +1346,7 @@
         <v>8.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>51</v>
@@ -1570,46 +1570,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
         <v>5.5</v>
@@ -1624,34 +1624,34 @@
         <v>2.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1660,22 +1660,22 @@
         <v>81</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
         <v>13</v>
       </c>
-      <c r="AM8" t="n">
-        <v>12</v>
-      </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-26.xlsx
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -855,10 +855,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -900,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
@@ -939,10 +939,10 @@
         <v>41</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ3" t="n">
         <v>1250</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1165,16 +1165,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
@@ -1246,10 +1246,10 @@
         <v>1250</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
@@ -1334,22 +1334,22 @@
         <v>2.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
       </c>
       <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
         <v>51</v>
@@ -1576,7 +1576,7 @@
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1588,28 +1588,28 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
         <v>5.5</v>
@@ -1633,7 +1633,7 @@
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1648,10 +1648,10 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
